--- a/TestPWA/wwwroot/EVA.xlsx
+++ b/TestPWA/wwwroot/EVA.xlsx
@@ -1376,6 +1376,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
